--- a/output/MOMENTUM/rebalance/rebalance_20250430.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250430.xlsx
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02132821424286546</v>
+        <v>0.02132752813042001</v>
       </c>
       <c r="C14" t="n">
         <v>0.02057580074445108</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0007524134984143761</v>
+        <v>-0.0007517273859689241</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02228617640801109</v>
+        <v>0.02228642948172909</v>
       </c>
       <c r="C21" t="n">
         <v>0.02030007812140986</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.001986098286601234</v>
+        <v>-0.00198635136031923</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02321959770276349</v>
+        <v>0.02322054473105637</v>
       </c>
       <c r="C26" t="n">
         <v>0.02008179771150223</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.003137799991261257</v>
+        <v>-0.00313874701955414</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02121198186908585</v>
+        <v>0.02121231714968096</v>
       </c>
       <c r="C29" t="n">
         <v>0.01992095951472818</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001291022354357668</v>
+        <v>-0.001291357634952774</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02045191362738247</v>
+        <v>0.02045468261876627</v>
       </c>
       <c r="C31" t="n">
         <v>0.0196682137769404</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0007836998504420732</v>
+        <v>-0.0007864688418258749</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02136311971542511</v>
+        <v>0.02136279889227091</v>
       </c>
       <c r="C32" t="n">
         <v>0.01965672533431368</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.001706394381111434</v>
+        <v>-0.001706073557957228</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02034065551650155</v>
+        <v>0.02033815398930618</v>
       </c>
       <c r="C33" t="n">
         <v>0.01963374844906024</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0007069070674413057</v>
+        <v>-0.00070440554024594</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02049078611368264</v>
+        <v>0.02048984112445314</v>
       </c>
       <c r="C39" t="n">
         <v>0.01922016451449841</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001270621599184226</v>
+        <v>-0.001269676609954723</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.02185543553432526</v>
+        <v>0.02185539159898785</v>
       </c>
       <c r="C41" t="n">
         <v>0.01913974541611139</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.002715690118213866</v>
+        <v>-0.002715646182876459</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02030242515141888</v>
+        <v>0.02030238433805244</v>
       </c>
       <c r="C44" t="n">
         <v>0.01909379164560452</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.00120863350581436</v>
+        <v>-0.001208592692447923</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0222997324763858</v>
+        <v>0.02229955582279768</v>
       </c>
       <c r="C47" t="n">
         <v>0.01892146500620376</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.00337826747018204</v>
+        <v>-0.003378090816593918</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02058337322008139</v>
+        <v>0.02058388398642803</v>
       </c>
       <c r="C48" t="n">
         <v>0.01888699967832361</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.001696373541757785</v>
+        <v>-0.001696884308104423</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0206115537291242</v>
+        <v>0.02061165085304183</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0206115537291242</v>
+        <v>-0.02061165085304183</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01831145916440754</v>
+        <v>0.01831158648222697</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01831145916440754</v>
+        <v>-0.01831158648222697</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02138819361575855</v>
+        <v>0.02138820227977737</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02138819361575855</v>
+        <v>-0.02138820227977737</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02288690652397331</v>
+        <v>0.02288595192307206</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02288690652397331</v>
+        <v>-0.02288595192307206</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01990383091715893</v>
+        <v>0.01990324850047854</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01990383091715893</v>
+        <v>-0.01990324850047854</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01960512297986872</v>
+        <v>0.019605199916869</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01960512297986872</v>
+        <v>-0.019605199916869</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02254425503761908</v>
+        <v>0.0225433133020753</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02254425503761908</v>
+        <v>-0.0225433133020753</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01932337924110524</v>
+        <v>0.01932344304343951</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01932337924110524</v>
+        <v>-0.01932344304343951</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01893655429756802</v>
+        <v>0.01893578090694519</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01893655429756802</v>
+        <v>-0.01893578090694519</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01900044575782759</v>
+        <v>0.01900128994636462</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01900044575782759</v>
+        <v>-0.01900128994636462</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02056813853146708</v>
+        <v>0.0205667006113881</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02056813853146708</v>
+        <v>-0.0205667006113881</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0202954542767468</v>
+        <v>0.02029545733803837</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.0202954542767468</v>
+        <v>-0.02029545733803837</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0173183434217603</v>
+        <v>0.01731851256870481</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.0173183434217603</v>
+        <v>-0.01731851256870481</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01725050219044535</v>
+        <v>0.01725059746912131</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01725050219044535</v>
+        <v>-0.01725059746912131</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0183699686736244</v>
+        <v>0.01837002062630359</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.0183699686736244</v>
+        <v>-0.01837002062630359</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0182336483866377</v>
+        <v>0.01823431601049355</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0182336483866377</v>
+        <v>-0.01823431601049355</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01980318616035741</v>
+        <v>0.01980356746312809</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01980318616035741</v>
+        <v>-0.01980356746312809</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02112516190154077</v>
+        <v>0.02112573803713613</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.02112516190154077</v>
+        <v>-0.02112573803713613</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01899781932345428</v>
+        <v>0.01899861772953294</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01899781932345428</v>
+        <v>-0.01899861772953294</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01977253591229131</v>
+        <v>0.01977244437175722</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01977253591229131</v>
+        <v>-0.01977244437175722</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01842536756193816</v>
+        <v>0.01842522587565189</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01842536756193816</v>
+        <v>-0.01842522587565189</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01917190132772777</v>
+        <v>0.01917178857793394</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01917190132772777</v>
+        <v>-0.01917178857793394</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02075883912307956</v>
+        <v>0.02075910702226859</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.02075883912307956</v>
+        <v>-0.02075910702226859</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01771282818690709</v>
+        <v>0.01771279257933104</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01771282818690709</v>
+        <v>-0.01771279257933104</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01884129147720967</v>
+        <v>0.01884104389573552</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01884129147720967</v>
+        <v>-0.01884104389573552</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01879392463978963</v>
+        <v>0.0187942069578202</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01879392463978963</v>
+        <v>-0.0187942069578202</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01817305535835836</v>
+        <v>0.01817305422247488</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01817305535835836</v>
+        <v>-0.01817305422247488</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01803346517063237</v>
+        <v>0.01803357582190984</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01803346517063237</v>
+        <v>-0.01803357582190984</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0209411572690536</v>
+        <v>0.02094126453796655</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.0209411572690536</v>
+        <v>-0.02094126453796655</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01928352806303756</v>
+        <v>0.01928410824136871</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01928352806303756</v>
+        <v>-0.01928410824136871</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02105089667912431</v>
+        <v>0.02105075534643668</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02105089667912431</v>
+        <v>-0.02105075534643668</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01949445955633947</v>
+        <v>0.01949449830698003</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01949445955633947</v>
+        <v>-0.01949449830698003</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02082244264013196</v>
+        <v>0.02082159085774954</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.02082244264013196</v>
+        <v>-0.02082159085774954</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01865535805006773</v>
+        <v>0.01865584298653009</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01865535805006773</v>
+        <v>-0.01865584298653009</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02035322009437721</v>
+        <v>0.02035383291662399</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.02035322009437721</v>
+        <v>-0.02035383291662399</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02047087503267048</v>
+        <v>0.02047169276193787</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.02047087503267048</v>
+        <v>-0.02047169276193787</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01814093119383243</v>
+        <v>0.01814024394037462</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01814093119383243</v>
+        <v>-0.01814024394037462</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02089658695505707</v>
+        <v>0.02089622390706248</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.02089658695505707</v>
+        <v>-0.02089622390706248</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20250430.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250430.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>76.49%</t>
+          <t>76.56%</t>
         </is>
       </c>
     </row>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02132752813042001</v>
+        <v>0.02136063759573585</v>
       </c>
       <c r="C14" t="n">
         <v>0.02057580074445108</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0007517273859689241</v>
+        <v>-0.0007848368512847689</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02228642948172909</v>
+        <v>0.02232005606401889</v>
       </c>
       <c r="C21" t="n">
         <v>0.02030007812140986</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.00198635136031923</v>
+        <v>-0.002019977942609032</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02322054473105637</v>
+        <v>0.02325489635464556</v>
       </c>
       <c r="C26" t="n">
         <v>0.02008179771150223</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.00313874701955414</v>
+        <v>-0.003173098643143333</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02121231714968096</v>
+        <v>0.02124422852440307</v>
       </c>
       <c r="C29" t="n">
         <v>0.01992095951472818</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001291357634952774</v>
+        <v>-0.001323269009674888</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6891,17 +6891,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02045468261876627</v>
+        <v>0.01896279536852052</v>
       </c>
       <c r="C31" t="n">
         <v>0.0196682137769404</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0007864688418258749</v>
+        <v>0.0007054184084198771</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02136279889227091</v>
+        <v>0.02139559613192478</v>
       </c>
       <c r="C32" t="n">
         <v>0.01965672533431368</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.001706073557957228</v>
+        <v>-0.001738870797611099</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02033815398930618</v>
+        <v>0.02037157757326245</v>
       </c>
       <c r="C33" t="n">
         <v>0.01963374844906024</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.00070440554024594</v>
+        <v>-0.000737829124202203</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02048984112445314</v>
+        <v>0.02052193640039629</v>
       </c>
       <c r="C39" t="n">
         <v>0.01922016451449841</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001269676609954723</v>
+        <v>-0.001301771885897873</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.02185539159898785</v>
+        <v>0.02188866037398583</v>
       </c>
       <c r="C41" t="n">
         <v>0.01913974541611139</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.002715646182876459</v>
+        <v>-0.002748914957874441</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02030238433805244</v>
+        <v>0.02033328909001746</v>
       </c>
       <c r="C44" t="n">
         <v>0.01909379164560452</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.001208592692447923</v>
+        <v>-0.00123949744441294</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02229955582279768</v>
+        <v>0.02233363274045685</v>
       </c>
       <c r="C47" t="n">
         <v>0.01892146500620376</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.003378090816593918</v>
+        <v>-0.003412167734253093</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02058388398642803</v>
+        <v>0.02061466425858926</v>
       </c>
       <c r="C48" t="n">
         <v>0.01888699967832361</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.001696884308104423</v>
+        <v>-0.001727664580265652</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02061165085304183</v>
+        <v>0.02064288760790826</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02061165085304183</v>
+        <v>-0.02064288760790826</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01831158648222697</v>
+        <v>0.01833929641769554</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01831158648222697</v>
+        <v>-0.01833929641769554</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02138820227977737</v>
+        <v>0.0214207081498385</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02138820227977737</v>
+        <v>-0.0214207081498385</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02288595192307206</v>
+        <v>0.02292169941558104</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02288595192307206</v>
+        <v>-0.02292169941558104</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01990324850047854</v>
+        <v>0.01993408890903538</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01990324850047854</v>
+        <v>-0.01993408890903538</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.019605199916869</v>
+        <v>0.01963492687311574</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.019605199916869</v>
+        <v>-0.01963492687311574</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0225433133020753</v>
+        <v>0.02257852702719877</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.0225433133020753</v>
+        <v>-0.02257852702719877</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01932344304343951</v>
+        <v>0.01935275482485774</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01932344304343951</v>
+        <v>-0.01935275482485774</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01893578090694519</v>
+        <v>0.01896534182638537</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01893578090694519</v>
+        <v>-0.01896534182638537</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01900128994636462</v>
+        <v>0.01902933041504669</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01900128994636462</v>
+        <v>-0.01902933041504669</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0205667006113881</v>
+        <v>0.02059940641005733</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.0205667006113881</v>
+        <v>-0.02059940641005733</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02029545733803837</v>
+        <v>0.02032630761815582</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02029545733803837</v>
+        <v>-0.02032630761815582</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01731851256870481</v>
+        <v>0.01734467093111014</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01731851256870481</v>
+        <v>-0.01734467093111014</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01725059746912131</v>
+        <v>0.01727672656691416</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01725059746912131</v>
+        <v>-0.01727672656691416</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01837002062630359</v>
+        <v>0.0183978948736213</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01837002062630359</v>
+        <v>-0.0183978948736213</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01823431601049355</v>
+        <v>0.01826136735124592</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01823431601049355</v>
+        <v>-0.01826136735124592</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01980356746312809</v>
+        <v>0.01983329115112334</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01980356746312809</v>
+        <v>-0.01983329115112334</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02112573803713613</v>
+        <v>0.02115727657232279</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.02112573803713613</v>
+        <v>-0.02115727657232279</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01899861772953294</v>
+        <v>0.01902669998794303</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01899861772953294</v>
+        <v>-0.01902669998794303</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01977244437175722</v>
+        <v>0.01980259430826044</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01977244437175722</v>
+        <v>-0.01980259430826044</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01842522587565189</v>
+        <v>0.01845337797984867</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01842522587565189</v>
+        <v>-0.01845337797984867</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01917178857793394</v>
+        <v>0.0192010466333247</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01917178857793394</v>
+        <v>-0.0192010466333247</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02075910702226859</v>
+        <v>0.02079039690651155</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.02075910702226859</v>
+        <v>-0.02079039690651155</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01771279257933104</v>
+        <v>0.01773975539572528</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01771279257933104</v>
+        <v>-0.01773975539572528</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01884104389573552</v>
+        <v>0.01886993418658716</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01884104389573552</v>
+        <v>-0.01886993418658716</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0187942069578202</v>
+        <v>0.0188224953416532</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.0187942069578202</v>
+        <v>-0.0188224953416532</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01817305422247488</v>
+        <v>0.01820068220887231</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01817305422247488</v>
+        <v>-0.01820068220887231</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01803357582190984</v>
+        <v>0.01806087981482365</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01803357582190984</v>
+        <v>-0.01806087981482365</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02094126453796655</v>
+        <v>0.02097299221425423</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02094126453796655</v>
+        <v>-0.02097299221425423</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01928410824136871</v>
+        <v>0.01931284306465252</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01928410824136871</v>
+        <v>-0.01931284306465252</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02105075534643668</v>
+        <v>0.02108289845121331</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02105075534643668</v>
+        <v>-0.02108289845121331</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01949449830698003</v>
+        <v>0.01952409521800412</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01949449830698003</v>
+        <v>-0.01952409521800412</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02082159085774954</v>
+        <v>0.0208540971142317</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.02082159085774954</v>
+        <v>-0.0208540971142317</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01865584298653009</v>
+        <v>0.01868371810169197</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01865584298653009</v>
+        <v>-0.01868371810169197</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02035383291662399</v>
+        <v>0.02038416125192815</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.02035383291662399</v>
+        <v>-0.02038416125192815</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02047169276193787</v>
+        <v>0.0205019950503706</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.02047169276193787</v>
+        <v>-0.0205019950503706</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01814024394037462</v>
+        <v>0.01816850920888785</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01814024394037462</v>
+        <v>-0.01816850920888785</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02089622390706248</v>
+        <v>0.02092835414404512</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.02089622390706248</v>
+        <v>-0.02092835414404512</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
